--- a/results/efa_factor_correlations_final.xlsx
+++ b/results/efa_factor_correlations_final.xlsx
@@ -390,13 +390,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34</v>
+        <v>0.008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.285</v>
+        <v>0.002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.147</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="3">
@@ -404,16 +404,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.34</v>
+        <v>0.008</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.575</v>
+        <v>0.674</v>
       </c>
       <c r="E3" t="n">
-        <v>0.129</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -421,16 +421,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.285</v>
+        <v>0.002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.575</v>
+        <v>0.674</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.039</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="5">
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.147</v>
+        <v>-0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.129</v>
+        <v>0.18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.039</v>
+        <v>0.218</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>

--- a/results/efa_factor_correlations_final.xlsx
+++ b/results/efa_factor_correlations_final.xlsx
@@ -358,11 +358,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="13.38" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.38" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.38" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="13.38" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="13.38" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -390,13 +390,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002</v>
+        <v>0.107</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.029</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="3">
@@ -404,16 +404,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008</v>
+        <v>0.55</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.674</v>
+        <v>0.003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.18</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="4">
@@ -421,16 +421,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002</v>
+        <v>0.107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.674</v>
+        <v>0.003</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.218</v>
+        <v>0.686</v>
       </c>
     </row>
     <row r="5">
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.029</v>
+        <v>0.077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18</v>
+        <v>0.023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.218</v>
+        <v>0.686</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
